--- a/TestDB2.xlsx
+++ b/TestDB2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claud\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claud\Desktop\ProgettoDBNoSQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B547FCD5-7EDA-4E29-A6FE-CABC7739042E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCBAFF52-3E80-4201-81A7-242DAD24DFFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{350CD00D-A6CB-48A2-BB11-F3972BD70E85}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{350CD00D-A6CB-48A2-BB11-F3972BD70E85}"/>
   </bookViews>
   <sheets>
     <sheet name="1ᵃ Query" sheetId="16" r:id="rId1"/>
@@ -293,9 +293,6 @@
     <t>MongoDB</t>
   </si>
   <si>
-    <t>Neo4J</t>
-  </si>
-  <si>
     <t>50%</t>
   </si>
   <si>
@@ -323,10 +320,13 @@
     <t xml:space="preserve">MongoDB </t>
   </si>
   <si>
-    <t xml:space="preserve">Neo4J </t>
+    <t>Dev. Std</t>
   </si>
   <si>
-    <t>Dev. Std</t>
+    <t>Neo4j</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neo4j </t>
   </si>
 </sst>
 </file>
@@ -1677,7 +1677,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Neo4J</c:v>
+                  <c:v>Neo4j</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2208,7 +2208,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Neo4J</c:v>
+                  <c:v>Neo4j</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2800,7 +2800,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Neo4J</c:v>
+                  <c:v>Neo4j</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3332,7 +3332,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Neo4J</c:v>
+                  <c:v>Neo4j</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3863,7 +3863,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Neo4J</c:v>
+                  <c:v>Neo4j</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4395,7 +4395,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Neo4J</c:v>
+                  <c:v>Neo4j</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4926,7 +4926,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Neo4J</c:v>
+                  <c:v>Neo4j</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5458,7 +5458,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Neo4J</c:v>
+                  <c:v>Neo4j</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5989,7 +5989,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Neo4J</c:v>
+                  <c:v>Neo4j</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6521,7 +6521,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Neo4J</c:v>
+                  <c:v>Neo4j</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -12842,7 +12842,7 @@
     <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{206451BE-0D89-4C21-85DF-EE9AD4011B68}" uniqueName="1" name="Neo4J" queryTableFieldId="1" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{206451BE-0D89-4C21-85DF-EE9AD4011B68}" uniqueName="1" name="Neo4j" queryTableFieldId="1" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{6FC0CD0B-93CC-4BFA-981E-692B10CC726F}" uniqueName="2" name="25%" queryTableFieldId="2" dataDxfId="3"/>
     <tableColumn id="3" xr3:uid="{E35843FC-0E34-40DF-8AF0-347F60E56EC9}" uniqueName="3" name="50%" queryTableFieldId="3" dataDxfId="2"/>
     <tableColumn id="4" xr3:uid="{1F27D75B-5C02-4ABE-BE38-1B39261A626D}" uniqueName="4" name="75%" queryTableFieldId="4" dataDxfId="1"/>
@@ -12862,7 +12862,7 @@
     <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{558B9BAD-B30F-46D8-8D03-E751333B2806}" uniqueName="1" name="Neo4J" queryTableFieldId="1" dataDxfId="44"/>
+    <tableColumn id="1" xr3:uid="{558B9BAD-B30F-46D8-8D03-E751333B2806}" uniqueName="1" name="Neo4j" queryTableFieldId="1" dataDxfId="44"/>
     <tableColumn id="2" xr3:uid="{87539542-25D8-45E1-9154-9AFBA03A65E0}" uniqueName="2" name="25%" queryTableFieldId="2" dataDxfId="43"/>
     <tableColumn id="3" xr3:uid="{46A8824E-B104-49C1-9970-18E95A9CD770}" uniqueName="3" name="50%" queryTableFieldId="3" dataDxfId="42"/>
     <tableColumn id="4" xr3:uid="{7B3D1A84-4056-4095-8298-DB1D48A5D039}" uniqueName="4" name="75%" queryTableFieldId="4" dataDxfId="41"/>
@@ -12902,7 +12902,7 @@
     <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{4087249F-56C2-4912-BC91-D1F5A8FA939E}" uniqueName="1" name="Neo4J" queryTableFieldId="1" dataDxfId="34"/>
+    <tableColumn id="1" xr3:uid="{4087249F-56C2-4912-BC91-D1F5A8FA939E}" uniqueName="1" name="Neo4j" queryTableFieldId="1" dataDxfId="34"/>
     <tableColumn id="2" xr3:uid="{B4416B99-EFBE-4F91-8AE5-2D9027E2152D}" uniqueName="2" name="25%" queryTableFieldId="2" dataDxfId="33"/>
     <tableColumn id="3" xr3:uid="{722A4E40-6870-4C80-8B5B-CFC0B133CC2E}" uniqueName="3" name="50%" queryTableFieldId="3" dataDxfId="32"/>
     <tableColumn id="4" xr3:uid="{23A2356B-1A3A-4993-950D-A5D345AF067B}" uniqueName="4" name="75%" queryTableFieldId="4" dataDxfId="31"/>
@@ -12942,7 +12942,7 @@
     <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{CEEF774B-B3CB-4754-A2D2-FE8F6C3660C0}" uniqueName="1" name="Neo4J " queryTableFieldId="1" dataDxfId="24"/>
+    <tableColumn id="1" xr3:uid="{CEEF774B-B3CB-4754-A2D2-FE8F6C3660C0}" uniqueName="1" name="Neo4j " queryTableFieldId="1" dataDxfId="24"/>
     <tableColumn id="2" xr3:uid="{935C12FB-8E34-4B4E-9888-243DE6E52FF2}" uniqueName="2" name="25%" queryTableFieldId="2" dataDxfId="23"/>
     <tableColumn id="3" xr3:uid="{9391C107-A64A-4BAB-91B2-7F646205F8A6}" uniqueName="3" name="50%" queryTableFieldId="3" dataDxfId="22"/>
     <tableColumn id="4" xr3:uid="{EF021D85-3988-42C7-A60D-B969541545E4}" uniqueName="4" name="75%" queryTableFieldId="4" dataDxfId="21"/>
@@ -12982,7 +12982,7 @@
     <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{FC349CDD-8023-47CF-80B1-AC31DB4F2C9E}" uniqueName="1" name="Neo4J " queryTableFieldId="1" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{FC349CDD-8023-47CF-80B1-AC31DB4F2C9E}" uniqueName="1" name="Neo4j " queryTableFieldId="1" dataDxfId="14"/>
     <tableColumn id="2" xr3:uid="{FD44819C-F9C2-4641-9425-56E6A298D4D4}" uniqueName="2" name="25%" queryTableFieldId="2" dataDxfId="13"/>
     <tableColumn id="3" xr3:uid="{ED4EFDE0-8176-4E0F-8469-588854390CCA}" uniqueName="3" name="50%" queryTableFieldId="3" dataDxfId="12"/>
     <tableColumn id="4" xr3:uid="{A7237C45-4FB3-4573-AB45-DCD4A6EB5B69}" uniqueName="4" name="75%" queryTableFieldId="4" dataDxfId="11"/>
@@ -13311,8 +13311,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A38054D-D0B6-40BD-9744-053D72BCB311}">
   <dimension ref="D1:P65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13332,7 +13332,7 @@
     <row r="2" spans="4:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D2" s="7"/>
       <c r="E2" s="22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F2" s="23"/>
       <c r="G2"/>
@@ -13340,7 +13340,7 @@
       <c r="I2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P2" s="24"/>
     </row>
@@ -13349,14 +13349,14 @@
         <v>1</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="4:16" x14ac:dyDescent="0.25">
@@ -13449,28 +13449,28 @@
         <v>0</v>
       </c>
       <c r="F32" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H32" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G32" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H32" s="6" t="s">
-        <v>4</v>
-      </c>
       <c r="J32" s="2" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="K32" s="6" t="s">
         <v>0</v>
       </c>
       <c r="L32" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="M32" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="N32" s="6" t="s">
         <v>3</v>
-      </c>
-      <c r="M32" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="N32" s="6" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="33" spans="4:15" x14ac:dyDescent="0.25">
@@ -14437,7 +14437,7 @@
     </row>
     <row r="63" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D63" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E63" s="14">
         <f>AVERAGE(E33:E62)</f>
@@ -14456,7 +14456,7 @@
         <v>1.9422531127929632</v>
       </c>
       <c r="J63" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K63" s="16">
         <f>AVERAGE(K33:K62)</f>
@@ -14477,7 +14477,7 @@
     </row>
     <row r="64" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D64" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E64" s="14">
         <f>_xlfn.STDEV.S(E33:E62)</f>
@@ -14496,7 +14496,7 @@
         <v>0.65428580794704583</v>
       </c>
       <c r="J64" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K64" s="16">
         <f t="shared" si="4"/>
@@ -14517,7 +14517,7 @@
     </row>
     <row r="65" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D65" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E65" s="14">
         <f>_xlfn.CONFIDENCE.T(0.5,E64,COUNT(E33:E62))</f>
@@ -14536,7 +14536,7 @@
         <v>8.1593481629926065E-2</v>
       </c>
       <c r="J65" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K65" s="16">
         <f>_xlfn.CONFIDENCE.T(0.5,K64,COUNT(K33:K62))</f>
@@ -14593,7 +14593,7 @@
     <row r="2" spans="4:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D2" s="18"/>
       <c r="E2" s="25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F2" s="26"/>
       <c r="G2"/>
@@ -14601,7 +14601,7 @@
       <c r="I2"/>
       <c r="N2" s="19"/>
       <c r="O2" s="27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P2" s="27"/>
     </row>
@@ -14611,14 +14611,14 @@
         <v>1</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="N3" s="19"/>
       <c r="O3" s="20" t="s">
         <v>1</v>
       </c>
       <c r="P3" s="21" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="4:16" x14ac:dyDescent="0.25">
@@ -14705,34 +14705,34 @@
     </row>
     <row r="32" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D32" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F32" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H32" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G32" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H32" s="6" t="s">
-        <v>4</v>
-      </c>
       <c r="J32" s="2" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="K32" s="6" t="s">
         <v>0</v>
       </c>
       <c r="L32" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="M32" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="N32" s="6" t="s">
         <v>3</v>
-      </c>
-      <c r="M32" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="N32" s="6" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="33" spans="4:15" x14ac:dyDescent="0.25">
@@ -15699,7 +15699,7 @@
     </row>
     <row r="63" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D63" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E63" s="14">
         <f>AVERAGE(E33:E62)</f>
@@ -15718,7 +15718,7 @@
         <v>2.4589697519938101</v>
       </c>
       <c r="J63" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K63" s="16">
         <f>AVERAGE(K33:K62)</f>
@@ -15739,7 +15739,7 @@
     </row>
     <row r="64" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D64" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E64" s="14">
         <f>_xlfn.STDEV.S(E33:E62)</f>
@@ -15758,7 +15758,7 @@
         <v>0.69935245412575464</v>
       </c>
       <c r="J64" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K64" s="16">
         <f>_xlfn.STDEV.S(K33:K62)</f>
@@ -15779,7 +15779,7 @@
     </row>
     <row r="65" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D65" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E65" s="14">
         <f>_xlfn.CONFIDENCE.T(0.5,E64,COUNT(E33:E62))</f>
@@ -15798,7 +15798,7 @@
         <v>8.7213570775131033E-2</v>
       </c>
       <c r="J65" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K65" s="16">
         <f>_xlfn.CONFIDENCE.T(0.5,K64,COUNT(K33:K62))</f>
@@ -15854,7 +15854,7 @@
     <row r="2" spans="4:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D2" s="7"/>
       <c r="E2" s="22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F2" s="23"/>
       <c r="G2"/>
@@ -15862,7 +15862,7 @@
       <c r="I2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P2" s="24"/>
     </row>
@@ -15871,14 +15871,14 @@
         <v>1</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="4:16" x14ac:dyDescent="0.25">
@@ -15965,34 +15965,34 @@
     </row>
     <row r="32" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D32" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F32" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H32" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G32" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H32" s="6" t="s">
-        <v>4</v>
-      </c>
       <c r="J32" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K32" s="6" t="s">
         <v>0</v>
       </c>
       <c r="L32" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="M32" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="N32" s="6" t="s">
         <v>3</v>
-      </c>
-      <c r="M32" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="N32" s="6" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="33" spans="4:15" x14ac:dyDescent="0.25">
@@ -16959,7 +16959,7 @@
     </row>
     <row r="63" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D63" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E63" s="14">
         <f>AVERAGE(E33:E62)</f>
@@ -16978,7 +16978,7 @@
         <v>99.798377354939618</v>
       </c>
       <c r="J63" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K63" s="16">
         <f>AVERAGE(K33:K62)</f>
@@ -16999,7 +16999,7 @@
     </row>
     <row r="64" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D64" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E64" s="14">
         <f>_xlfn.STDEV.S(E33:E62)</f>
@@ -17018,7 +17018,7 @@
         <v>4.785717751240659</v>
       </c>
       <c r="J64" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K64" s="16">
         <f>_xlfn.STDEV.S(K33:K62)</f>
@@ -17039,7 +17039,7 @@
     </row>
     <row r="65" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D65" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E65" s="14">
         <f>_xlfn.CONFIDENCE.T(0.5,E64,COUNT(E33:E62))</f>
@@ -17058,7 +17058,7 @@
         <v>0.59680856390128112</v>
       </c>
       <c r="J65" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K65" s="16">
         <f>_xlfn.CONFIDENCE.T(0.5,K64,COUNT(K33:K62))</f>
@@ -17114,7 +17114,7 @@
     <row r="2" spans="4:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D2" s="7"/>
       <c r="E2" s="22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F2" s="23"/>
       <c r="G2"/>
@@ -17122,7 +17122,7 @@
       <c r="I2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P2" s="24"/>
     </row>
@@ -17131,14 +17131,14 @@
         <v>1</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="4:16" x14ac:dyDescent="0.25">
@@ -17225,34 +17225,34 @@
     </row>
     <row r="32" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D32" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F32" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H32" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G32" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H32" s="6" t="s">
-        <v>4</v>
-      </c>
       <c r="J32" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K32" s="6" t="s">
         <v>0</v>
       </c>
       <c r="L32" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="M32" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="N32" s="6" t="s">
         <v>3</v>
-      </c>
-      <c r="M32" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="N32" s="6" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="33" spans="4:15" x14ac:dyDescent="0.25">
@@ -18219,7 +18219,7 @@
     </row>
     <row r="63" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D63" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E63" s="14">
         <f>AVERAGE(E33:E62)</f>
@@ -18238,7 +18238,7 @@
         <v>449.96039072672465</v>
       </c>
       <c r="J63" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K63" s="16">
         <f>AVERAGE(K33:K62)</f>
@@ -18259,7 +18259,7 @@
     </row>
     <row r="64" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D64" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E64" s="14">
         <f>_xlfn.STDEV.S(E33:E62)</f>
@@ -18278,14 +18278,14 @@
         <v>15.076832638888028</v>
       </c>
       <c r="J64" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K64" s="16">
         <f>_xlfn.STDEV.S(K33:K62)</f>
         <v>0.55161034217660543</v>
       </c>
       <c r="L64" s="16">
-        <f t="shared" ref="L64:N64" si="3">_xlfn.STDEV.S(L33:L62)</f>
+        <f t="shared" ref="L64:M64" si="3">_xlfn.STDEV.S(L33:L62)</f>
         <v>0.69882013710206725</v>
       </c>
       <c r="M64" s="16">
@@ -18299,7 +18299,7 @@
     </row>
     <row r="65" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D65" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E65" s="14">
         <f>_xlfn.CONFIDENCE.T(0.5,E64,COUNT(E33:E62))</f>
@@ -18318,7 +18318,7 @@
         <v>1.880174156334663</v>
       </c>
       <c r="J65" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K65" s="16">
         <f>_xlfn.CONFIDENCE.T(0.5,K64,COUNT(K33:K62))</f>
@@ -18355,7 +18355,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3621A63A-92AD-4171-8F2D-101E432D0EBE}">
   <dimension ref="D1:P65"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I83" sqref="I83"/>
     </sheetView>
   </sheetViews>
@@ -18374,7 +18374,7 @@
     <row r="2" spans="4:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D2" s="7"/>
       <c r="E2" s="22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F2" s="23"/>
       <c r="G2"/>
@@ -18382,7 +18382,7 @@
       <c r="I2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P2" s="24"/>
     </row>
@@ -18391,14 +18391,14 @@
         <v>1</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="4:16" x14ac:dyDescent="0.25">
@@ -18485,34 +18485,34 @@
     </row>
     <row r="32" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D32" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F32" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H32" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G32" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H32" s="6" t="s">
-        <v>4</v>
-      </c>
       <c r="J32" s="2" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="K32" s="6" t="s">
         <v>0</v>
       </c>
       <c r="L32" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="M32" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="N32" s="6" t="s">
         <v>3</v>
-      </c>
-      <c r="M32" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="N32" s="6" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="33" spans="4:15" x14ac:dyDescent="0.25">
@@ -19479,7 +19479,7 @@
     </row>
     <row r="63" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D63" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E63" s="14">
         <f>AVERAGE(E33:E62)</f>
@@ -19498,7 +19498,7 @@
         <v>714.02771472930885</v>
       </c>
       <c r="J63" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K63" s="16">
         <f>AVERAGE(K33:K62)</f>
@@ -19519,7 +19519,7 @@
     </row>
     <row r="64" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D64" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E64" s="14">
         <f>_xlfn.STDEV.S(E33:E62)</f>
@@ -19538,7 +19538,7 @@
         <v>3.9503142282220338</v>
       </c>
       <c r="J64" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K64" s="16">
         <f>_xlfn.STDEV.S(K33:K62)</f>
@@ -19559,7 +19559,7 @@
     </row>
     <row r="65" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D65" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E65" s="14">
         <f>_xlfn.CONFIDENCE.T(0.5,E64,COUNT(E33:E62))</f>
@@ -19578,7 +19578,7 @@
         <v>0.49262858447780489</v>
       </c>
       <c r="J65" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K65" s="16">
         <f>_xlfn.CONFIDENCE.T(0.5,K64,COUNT(K33:K62))</f>
